--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -1922,7 +1922,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
@@ -2394,7 +2394,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v/>
+        <v>octobre</v>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
@@ -2404,7 +2404,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>octobre</v>
+        <v/>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2434,7 +2434,7 @@
       <c r="BD4" s="17"/>
       <c r="BE4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v/>
+        <v>novembre</v>
       </c>
       <c r="BF4" s="17"/>
       <c r="BG4" s="17"/>
@@ -2451,227 +2451,227 @@
       <c r="G5" s="32"/>
       <c r="H5" s="46">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44446</v>
+        <v>44455</v>
       </c>
       <c r="I5" s="47">
         <f ca="1">H5+1</f>
-        <v>44447</v>
+        <v>44456</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="K5" s="48">
         <f ca="1">J5+1</f>
-        <v>44449</v>
+        <v>44458</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
+        <v>44459</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44451</v>
+        <v>44460</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44452</v>
+        <v>44461</v>
       </c>
       <c r="O5" s="48">
         <f ca="1">N5+1</f>
-        <v>44453</v>
+        <v>44462</v>
       </c>
       <c r="P5" s="48">
         <f ca="1">O5+1</f>
-        <v>44454</v>
+        <v>44463</v>
       </c>
       <c r="Q5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44455</v>
+        <v>44464</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44456</v>
+        <v>44465</v>
       </c>
       <c r="S5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44457</v>
+        <v>44466</v>
       </c>
       <c r="T5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="V5" s="48">
         <f ca="1">U5+1</f>
-        <v>44460</v>
+        <v>44469</v>
       </c>
       <c r="W5" s="48">
         <f ca="1">V5+1</f>
-        <v>44461</v>
+        <v>44470</v>
       </c>
       <c r="X5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="Y5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44463</v>
+        <v>44472</v>
       </c>
       <c r="Z5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44464</v>
+        <v>44473</v>
       </c>
       <c r="AA5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44465</v>
+        <v>44474</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44466</v>
+        <v>44475</v>
       </c>
       <c r="AC5" s="48">
         <f ca="1">AB5+1</f>
-        <v>44467</v>
+        <v>44476</v>
       </c>
       <c r="AD5" s="48">
         <f ca="1">AC5+1</f>
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="AE5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="AF5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44470</v>
+        <v>44479</v>
       </c>
       <c r="AG5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44471</v>
+        <v>44480</v>
       </c>
       <c r="AH5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44481</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="AJ5" s="48">
         <f ca="1">AI5+1</f>
-        <v>44474</v>
+        <v>44483</v>
       </c>
       <c r="AK5" s="48">
         <f ca="1">AJ5+1</f>
-        <v>44475</v>
+        <v>44484</v>
       </c>
       <c r="AL5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44485</v>
       </c>
       <c r="AM5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44486</v>
       </c>
       <c r="AN5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44487</v>
       </c>
       <c r="AO5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44488</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44480</v>
+        <v>44489</v>
       </c>
       <c r="AQ5" s="48">
         <f ca="1">AP5+1</f>
-        <v>44481</v>
+        <v>44490</v>
       </c>
       <c r="AR5" s="48">
         <f ca="1">AQ5+1</f>
-        <v>44482</v>
+        <v>44491</v>
       </c>
       <c r="AS5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
+        <v>44492</v>
       </c>
       <c r="AT5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
+        <v>44493</v>
       </c>
       <c r="AU5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44494</v>
       </c>
       <c r="AV5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44495</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44487</v>
+        <v>44496</v>
       </c>
       <c r="AX5" s="48">
         <f ca="1">AW5+1</f>
-        <v>44488</v>
+        <v>44497</v>
       </c>
       <c r="AY5" s="48">
         <f ca="1">AX5+1</f>
-        <v>44489</v>
+        <v>44498</v>
       </c>
       <c r="AZ5" s="48">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44490</v>
+        <v>44499</v>
       </c>
       <c r="BA5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44491</v>
+        <v>44500</v>
       </c>
       <c r="BB5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44492</v>
+        <v>44501</v>
       </c>
       <c r="BC5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44493</v>
+        <v>44502</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44494</v>
+        <v>44503</v>
       </c>
       <c r="BE5" s="48">
         <f ca="1">BD5+1</f>
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="BF5" s="48">
         <f ca="1">BE5+1</f>
-        <v>44496</v>
+        <v>44505</v>
       </c>
       <c r="BG5" s="48">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44497</v>
+        <v>44506</v>
       </c>
       <c r="BH5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44498</v>
+        <v>44507</v>
       </c>
       <c r="BI5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44499</v>
+        <v>44508</v>
       </c>
       <c r="BJ5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44500</v>
+        <v>44509</v>
       </c>
       <c r="BK5" s="49">
         <f t="shared" ca="1" si="2"/>
-        <v>44501</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2696,227 +2696,227 @@
       <c r="G6" s="21"/>
       <c r="H6" s="39" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="I6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="J6" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="K6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="L6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="M6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="N6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="O6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="P6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="Q6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="R6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="S6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="T6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="U6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="V6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="W6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="X6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="Y6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="Z6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AA6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AB6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AC6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AD6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AE6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AF6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AG6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AH6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AI6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AJ6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AK6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AL6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AM6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AN6" s="41" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AO6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AP6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AQ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AR6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AS6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AT6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AU6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AV6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AW6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AX6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AY6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AZ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BA6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BB6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BC6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BD6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BE6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BF6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BG6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BH6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BI6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BJ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BK6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3233,7 +3233,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="24">
         <v>44446</v>
@@ -3962,7 +3962,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="24">
         <v>44453</v>
@@ -3999,9 +3999,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -4205,7 +4205,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E13" s="24">
         <v>44446</v>
@@ -4685,235 +4685,237 @@
         <v>69</v>
       </c>
       <c r="D15" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="24">
         <v>44460</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="45">
+        <v>1</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK15" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -4926,235 +4928,237 @@
         <v>67</v>
       </c>
       <c r="D16" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="24">
         <v>44460</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
       <c r="G16" s="20"/>
       <c r="H16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK16" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -5167,7 +5171,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E17" s="24">
         <v>44460</v>
@@ -5795,235 +5799,237 @@
         <v>64</v>
       </c>
       <c r="D21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="24">
         <v>44460</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="45">
+        <v>1</v>
+      </c>
       <c r="G21" s="20"/>
       <c r="H21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="N21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK21" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -6273,7 +6279,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="24">
         <v>44467</v>
@@ -6514,7 +6520,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="53">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="24">
         <v>44467</v>
@@ -13479,7 +13485,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6520,7 +6520,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="53">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="24">
         <v>44467</v>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6231B-7724-4B35-BFB5-4E233BA98A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13370" tabRatio="415"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,17 +18,24 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -274,11 +282,17 @@
   <si>
     <t>QUENTIN &amp; IBRAHIM</t>
   </si>
+  <si>
+    <t>IBRAHIM/QUENTIN</t>
+  </si>
+  <si>
+    <t>IMAN/QUENTIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1270,7 +1284,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1292,7 +1306,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1825,12 +1839,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="35"/>
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -1934,11 +1948,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>185738</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1981,8 +1995,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F50" totalsRowShown="0">
-  <autoFilter ref="B6:F50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F50" totalsRowShown="0">
+  <autoFilter ref="B6:F50" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1990,11 +2004,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="3" name="Affecté à" dataDxfId="1"/>
-    <tableColumn id="4" name="Avancement" dataDxfId="0"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2267,30 +2281,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="63" width="3.53125" customWidth="1"/>
+    <col min="68" max="69" width="10.265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2317,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2340,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2361,7 @@
       <c r="L3" s="44"/>
       <c r="M3" s="43"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2457,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2674,7 +2688,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +2999,7 @@
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3238,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="50" t="s">
         <v>22</v>
@@ -3467,7 +3481,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="50" t="s">
         <v>23</v>
@@ -3710,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="50" t="s">
         <v>24</v>
@@ -3953,7 +3967,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="50" t="s">
         <v>25</v>
@@ -4196,7 +4210,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="50" t="s">
         <v>26</v>
@@ -4439,7 +4453,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="55" t="s">
         <v>27</v>
@@ -4676,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="50" t="s">
         <v>28</v>
@@ -4919,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
         <v>29</v>
@@ -5162,7 +5176,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="50" t="s">
         <v>30</v>
@@ -5171,7 +5185,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="53">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="24">
         <v>44460</v>
@@ -5403,7 +5417,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="50" t="s">
         <v>31</v>
@@ -5644,7 +5658,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="50" t="s">
         <v>34</v>
@@ -5717,7 +5731,7 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="50" t="s">
         <v>33</v>
@@ -5790,7 +5804,7 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="50" t="s">
         <v>32</v>
@@ -6033,7 +6047,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="55" t="s">
         <v>35</v>
@@ -6270,248 +6284,250 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" s="53">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E23" s="24">
         <v>44467</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="45">
+        <v>14</v>
+      </c>
       <c r="G23" s="20"/>
       <c r="H23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="50" t="s">
         <v>37</v>
@@ -6520,245 +6536,247 @@
         <v>67</v>
       </c>
       <c r="D24" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="24">
         <v>44467</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="45">
+        <v>14</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D25" s="53">
         <v>0</v>
@@ -6993,7 +7011,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="55" t="s">
         <v>39</v>
@@ -7230,7 +7248,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="50" t="s">
         <v>40</v>
@@ -7471,248 +7489,250 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D28" s="53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="24">
         <v>44481</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="45">
+        <v>1</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH28" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AI28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="50" t="s">
         <v>42</v>
@@ -7953,7 +7973,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="50" t="s">
         <v>43</v>
@@ -8194,7 +8214,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="55" t="s">
         <v>44</v>
@@ -8431,7 +8451,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="50" t="s">
         <v>45</v>
@@ -8672,7 +8692,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
         <v>46</v>
@@ -8684,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="24">
-        <v>44502</v>
+        <v>44488</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="20"/>
@@ -8913,7 +8933,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
         <v>47</v>
@@ -9154,7 +9174,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="50" t="s">
         <v>48</v>
@@ -9166,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="24">
-        <v>44516</v>
+        <v>44502</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="20"/>
@@ -9395,7 +9415,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="50" t="s">
         <v>49</v>
@@ -9636,7 +9656,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="55" t="s">
         <v>50</v>
@@ -9873,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>51</v>
       </c>
@@ -9884,239 +9904,241 @@
         <v>69</v>
       </c>
       <c r="D38" s="53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E38" s="24">
-        <v>44488</v>
-      </c>
-      <c r="F38" s="45"/>
+        <v>44481</v>
+      </c>
+      <c r="F38" s="45">
+        <v>1</v>
+      </c>
       <c r="G38" s="20"/>
       <c r="H38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH38" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AI38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="51" t="s">
         <v>53</v>
@@ -10357,7 +10379,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="51" t="s">
         <v>54</v>
@@ -10598,7 +10620,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
         <v>55</v>
@@ -10839,7 +10861,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
         <v>56</v>
@@ -11080,7 +11102,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
         <v>57</v>
@@ -11321,7 +11343,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
       <c r="B44" s="55" t="s">
         <v>58</v>
@@ -11558,7 +11580,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:63" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="51" t="s">
         <v>56</v>
@@ -11799,7 +11821,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="51" t="s">
         <v>59</v>
@@ -12040,7 +12062,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="51" t="s">
         <v>60</v>
@@ -12281,7 +12303,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12"/>
       <c r="B48" s="51" t="s">
         <v>61</v>
@@ -12522,7 +12544,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="51" t="s">
         <v>62</v>
@@ -12763,7 +12785,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12"/>
       <c r="B50" s="51" t="s">
         <v>63</v>
@@ -13004,7 +13026,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
@@ -13071,12 +13093,12 @@
       <c r="BJ51" s="26"/>
       <c r="BK51" s="26"/>
     </row>
-    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C52" s="5"/>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C53" s="6"/>
     </row>
   </sheetData>
@@ -13486,7 +13508,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -13510,11 +13532,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>185738</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -14063,33 +14085,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.19921875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.2" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6231B-7724-4B35-BFB5-4E233BA98A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BDAFB9-C83C-4780-B6A4-AE3099C5880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>IBRAHIM/QUENTIN</t>
-  </si>
-  <si>
-    <t>IMAN/QUENTIN</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1933,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="30"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2287,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2352,7 +2349,7 @@
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="36">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
@@ -2378,7 +2375,7 @@
       </c>
       <c r="H4" s="17" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
-        <v>septembre</v>
+        <v>octobre</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2408,7 +2405,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v>octobre</v>
+        <v/>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
@@ -2418,7 +2415,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v/>
+        <v>novembre</v>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2448,7 +2445,7 @@
       <c r="BD4" s="17"/>
       <c r="BE4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v>novembre</v>
+        <v/>
       </c>
       <c r="BF4" s="17"/>
       <c r="BG4" s="17"/>
@@ -2465,227 +2462,227 @@
       <c r="G5" s="32"/>
       <c r="H5" s="46">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44455</v>
+        <v>44476</v>
       </c>
       <c r="I5" s="47">
         <f ca="1">H5+1</f>
-        <v>44456</v>
+        <v>44477</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44457</v>
+        <v>44478</v>
       </c>
       <c r="K5" s="48">
         <f ca="1">J5+1</f>
-        <v>44458</v>
+        <v>44479</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44459</v>
+        <v>44480</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44460</v>
+        <v>44481</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44461</v>
+        <v>44482</v>
       </c>
       <c r="O5" s="48">
         <f ca="1">N5+1</f>
-        <v>44462</v>
+        <v>44483</v>
       </c>
       <c r="P5" s="48">
         <f ca="1">O5+1</f>
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="Q5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44464</v>
+        <v>44485</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44465</v>
+        <v>44486</v>
       </c>
       <c r="S5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="T5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44467</v>
+        <v>44488</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="V5" s="48">
         <f ca="1">U5+1</f>
-        <v>44469</v>
+        <v>44490</v>
       </c>
       <c r="W5" s="48">
         <f ca="1">V5+1</f>
-        <v>44470</v>
+        <v>44491</v>
       </c>
       <c r="X5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44471</v>
+        <v>44492</v>
       </c>
       <c r="Y5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44493</v>
       </c>
       <c r="Z5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="AA5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44474</v>
+        <v>44495</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44475</v>
+        <v>44496</v>
       </c>
       <c r="AC5" s="48">
         <f ca="1">AB5+1</f>
-        <v>44476</v>
+        <v>44497</v>
       </c>
       <c r="AD5" s="48">
         <f ca="1">AC5+1</f>
-        <v>44477</v>
+        <v>44498</v>
       </c>
       <c r="AE5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44499</v>
       </c>
       <c r="AF5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44500</v>
       </c>
       <c r="AG5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44480</v>
+        <v>44501</v>
       </c>
       <c r="AH5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44481</v>
+        <v>44502</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44482</v>
+        <v>44503</v>
       </c>
       <c r="AJ5" s="48">
         <f ca="1">AI5+1</f>
-        <v>44483</v>
+        <v>44504</v>
       </c>
       <c r="AK5" s="48">
         <f ca="1">AJ5+1</f>
-        <v>44484</v>
+        <v>44505</v>
       </c>
       <c r="AL5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44506</v>
       </c>
       <c r="AM5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44507</v>
       </c>
       <c r="AN5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44487</v>
+        <v>44508</v>
       </c>
       <c r="AO5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44510</v>
       </c>
       <c r="AQ5" s="48">
         <f ca="1">AP5+1</f>
-        <v>44490</v>
+        <v>44511</v>
       </c>
       <c r="AR5" s="48">
         <f ca="1">AQ5+1</f>
-        <v>44491</v>
+        <v>44512</v>
       </c>
       <c r="AS5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44513</v>
       </c>
       <c r="AT5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44514</v>
       </c>
       <c r="AU5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44494</v>
+        <v>44515</v>
       </c>
       <c r="AV5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44516</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44517</v>
       </c>
       <c r="AX5" s="48">
         <f ca="1">AW5+1</f>
-        <v>44497</v>
+        <v>44518</v>
       </c>
       <c r="AY5" s="48">
         <f ca="1">AX5+1</f>
-        <v>44498</v>
+        <v>44519</v>
       </c>
       <c r="AZ5" s="48">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44499</v>
+        <v>44520</v>
       </c>
       <c r="BA5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44500</v>
+        <v>44521</v>
       </c>
       <c r="BB5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44501</v>
+        <v>44522</v>
       </c>
       <c r="BC5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44502</v>
+        <v>44523</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44503</v>
+        <v>44524</v>
       </c>
       <c r="BE5" s="48">
         <f ca="1">BD5+1</f>
-        <v>44504</v>
+        <v>44525</v>
       </c>
       <c r="BF5" s="48">
         <f ca="1">BE5+1</f>
-        <v>44505</v>
+        <v>44526</v>
       </c>
       <c r="BG5" s="48">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44506</v>
+        <v>44527</v>
       </c>
       <c r="BH5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44507</v>
+        <v>44528</v>
       </c>
       <c r="BI5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44508</v>
+        <v>44529</v>
       </c>
       <c r="BJ5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="BK5" s="49">
         <f t="shared" ca="1" si="2"/>
-        <v>44510</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4728,9 +4725,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
@@ -4971,9 +4968,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
@@ -5185,235 +5182,237 @@
         <v>64</v>
       </c>
       <c r="D17" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E17" s="24">
         <v>44460</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="45">
+        <v>1</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK17" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -5842,9 +5841,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N21" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
@@ -6293,7 +6292,7 @@
         <v>73</v>
       </c>
       <c r="D23" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="24">
         <v>44467</v>
@@ -6776,238 +6775,240 @@
         <v>38</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D25" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="24">
-        <v>44467</v>
-      </c>
-      <c r="F25" s="45"/>
+        <v>44488</v>
+      </c>
+      <c r="F25" s="45">
+        <v>1</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="U25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK25" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -7498,7 +7499,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="53">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E28" s="24">
         <v>44481</v>
@@ -7527,9 +7528,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M28" s="27" t="str">
+      <c r="M28" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N28" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
@@ -7611,9 +7612,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH28" s="27">
+      <c r="AH28" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AI28" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
@@ -7982,10 +7983,10 @@
         <v>67</v>
       </c>
       <c r="D30" s="53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="24">
-        <v>44481</v>
+        <v>44488</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="20"/>
@@ -9933,9 +9934,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M38" s="27" t="str">
+      <c r="M38" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N38" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
@@ -10017,9 +10018,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH38" s="27">
+      <c r="AH38" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AI38" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BDAFB9-C83C-4780-B6A4-AE3099C5880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22034125-9E10-4589-A0D1-7A203FCAFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11590,10 +11590,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="53">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E45" s="24">
-        <v>44488</v>
+        <v>44502</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="20"/>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22034125-9E10-4589-A0D1-7A203FCAFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC80E88-7F0B-443C-9262-C8D6DF2C2579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,7 +2285,7 @@
   <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7258,7 +7258,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="24">
         <v>44467</v>
@@ -7983,7 +7983,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="53">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E30" s="24">
         <v>44488</v>
@@ -11590,7 +11590,7 @@
         <v>67</v>
       </c>
       <c r="D45" s="53">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E45" s="24">
         <v>44502</v>
@@ -11831,7 +11831,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="24">
         <v>44488</v>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC80E88-7F0B-443C-9262-C8D6DF2C2579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D2755-3679-4E5F-AE82-B19D0E6DAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="3548" windowWidth="13680" windowHeight="9532" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11831,7 +11831,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="53">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="24">
         <v>44488</v>
@@ -12072,7 +12072,7 @@
         <v>67</v>
       </c>
       <c r="D47" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E47" s="24">
         <v>44502</v>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D2755-3679-4E5F-AE82-B19D0E6DAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9508BB7-8AA9-40B7-9219-647544BF2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3548" windowWidth="13680" windowHeight="9532" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5425,7 +5425,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="24">
         <v>44460</v>
@@ -7499,7 +7499,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E28" s="24">
         <v>44481</v>
@@ -7983,7 +7983,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E30" s="24">
         <v>44488</v>
@@ -8461,7 +8461,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="24">
         <v>44488</v>
@@ -8702,7 +8702,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="24">
         <v>44488</v>
@@ -8943,7 +8943,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="24">
         <v>44502</v>
@@ -9184,7 +9184,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E35" s="24">
         <v>44502</v>
@@ -9905,7 +9905,7 @@
         <v>69</v>
       </c>
       <c r="D38" s="53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E38" s="24">
         <v>44481</v>
@@ -10389,7 +10389,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="24">
         <v>44502</v>
@@ -10871,7 +10871,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="24">
         <v>44523</v>
@@ -11831,7 +11831,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="53">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E46" s="24">
         <v>44488</v>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9508BB7-8AA9-40B7-9219-647544BF2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161558D7-CCFA-4D04-A270-C2DE0759D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12072,7 +12072,7 @@
         <v>67</v>
       </c>
       <c r="D47" s="53">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="24">
         <v>44502</v>
@@ -12313,7 +12313,7 @@
         <v>67</v>
       </c>
       <c r="D48" s="53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E48" s="24">
         <v>44516</v>
@@ -12554,7 +12554,7 @@
         <v>67</v>
       </c>
       <c r="D49" s="53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E49" s="24">
         <v>44516</v>
@@ -12795,7 +12795,7 @@
         <v>67</v>
       </c>
       <c r="D50" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E50" s="24">
         <v>44523</v>
